--- a/Sample/template.xlsx
+++ b/Sample/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Validating-Excel-with-Python\Sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC4257D0-8A58-4297-9B2C-1A89BE91F916}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B988CF-A375-4588-A497-7D9AF9D867E3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22400" windowHeight="10010" xr2:uid="{9C308394-85F4-420F-A016-07AFB7C9F675}"/>
   </bookViews>
@@ -123,7 +123,7 @@
     <t>SpouseName</t>
   </si>
   <si>
-    <t>MaritalStatus=='married'</t>
+    <t>MaritalStatus==''married"</t>
   </si>
 </sst>
 </file>
@@ -532,7 +532,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Sample/template.xlsx
+++ b/Sample/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Validating-Excel-with-Python\Sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B988CF-A375-4588-A497-7D9AF9D867E3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD96D726-CAA8-4F21-AF39-9EC4D58AE291}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22400" windowHeight="10010" xr2:uid="{9C308394-85F4-420F-A016-07AFB7C9F675}"/>
   </bookViews>

--- a/Sample/template.xlsx
+++ b/Sample/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Validating-Excel-with-Python\Sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD96D726-CAA8-4F21-AF39-9EC4D58AE291}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9436BCB-BC7E-49B8-BA50-71DDC21DE471}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22400" windowHeight="10010" xr2:uid="{9C308394-85F4-420F-A016-07AFB7C9F675}"/>
   </bookViews>
@@ -123,7 +123,7 @@
     <t>SpouseName</t>
   </si>
   <si>
-    <t>MaritalStatus==''married"</t>
+    <t>MaritalStatus'==''married"</t>
   </si>
 </sst>
 </file>
@@ -215,18 +215,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00DC5D61-B6B1-4CEB-B163-387E5F0690EF}" name="Table1" displayName="Table1" ref="A1:I15" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00DC5D61-B6B1-4CEB-B163-387E5F0690EF}" name="Table1" displayName="Table1" ref="A1:I15" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
   <autoFilter ref="A1:I15" xr:uid="{2E0AB24A-2D50-4018-88B4-76A62A45AC9C}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{067FCCFE-3D65-4DC5-B1B3-3C0A3CD55856}" name="variable_name" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{76581D30-6ECB-48A5-8539-E7D1B1DE1CE9}" name="datatype_check" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{B01C5A01-8AEF-4CE3-A745-196F9B6F3E68}" name="missing_check" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{3E9A8904-45B8-4141-A14A-453CE4F4F1B9}" name="logic_check" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{43C7ADE9-75F7-48EB-907E-54FF4AA8030D}" name="regex_check" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{4ACD8CB2-0916-4CA6-978C-4B86B02AF578}" name="constraint_check" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{719C69CE-CCBF-4D61-A300-C9E0EB9E3BB4}" name="choices_check" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{CA6D194C-5ABF-4F3B-BBC1-F735832AA43D}" name="id_check" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{60B12529-9D67-494C-A0BC-04B4F6163473}" name="ids_check" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{067FCCFE-3D65-4DC5-B1B3-3C0A3CD55856}" name="variable_name" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{76581D30-6ECB-48A5-8539-E7D1B1DE1CE9}" name="datatype_check" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{B01C5A01-8AEF-4CE3-A745-196F9B6F3E68}" name="missing_check" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{3E9A8904-45B8-4141-A14A-453CE4F4F1B9}" name="logic_check" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{43C7ADE9-75F7-48EB-907E-54FF4AA8030D}" name="regex_check" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{4ACD8CB2-0916-4CA6-978C-4B86B02AF578}" name="constraint_check" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{719C69CE-CCBF-4D61-A300-C9E0EB9E3BB4}" name="choices_check" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{CA6D194C-5ABF-4F3B-BBC1-F735832AA43D}" name="id_check" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{60B12529-9D67-494C-A0BC-04B4F6163473}" name="ids_check" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -532,20 +532,21 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.1796875" customWidth="1"/>
-    <col min="2" max="2" width="16.08984375" customWidth="1"/>
-    <col min="3" max="3" width="14.7265625" customWidth="1"/>
-    <col min="4" max="4" width="12.26953125" customWidth="1"/>
-    <col min="5" max="5" width="22.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.08984375" customWidth="1"/>
-    <col min="7" max="7" width="14.6328125" customWidth="1"/>
-    <col min="8" max="8" width="10.08984375" customWidth="1"/>
-    <col min="9" max="9" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.1796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.08984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7265625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.26953125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.08984375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6328125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.08984375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
@@ -587,14 +588,9 @@
       <c r="C2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
@@ -606,12 +602,6 @@
       <c r="C3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
@@ -623,12 +613,6 @@
       <c r="C4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
@@ -640,13 +624,9 @@
       <c r="C5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
       <c r="I5" s="1" t="s">
         <v>27</v>
       </c>
@@ -661,13 +641,9 @@
       <c r="C6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
       <c r="G6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="1"/>
       <c r="I6" s="1" t="s">
         <v>27</v>
       </c>
@@ -682,13 +658,9 @@
       <c r="C7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
       <c r="I7" s="1" t="s">
         <v>27</v>
       </c>
@@ -703,13 +675,9 @@
       <c r="C8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
         <v>27</v>
       </c>
@@ -721,15 +689,9 @@
       <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
@@ -741,12 +703,6 @@
       <c r="C10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
@@ -758,12 +714,6 @@
       <c r="C11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
@@ -775,12 +725,6 @@
       <c r="C12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
@@ -792,12 +736,6 @@
       <c r="C13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
@@ -809,14 +747,9 @@
       <c r="C14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
@@ -828,12 +761,6 @@
       <c r="C15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Sample/template.xlsx
+++ b/Sample/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Validating-Excel-with-Python\Sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9436BCB-BC7E-49B8-BA50-71DDC21DE471}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B50BE995-F70D-4E10-97BD-6CEADF03DCEF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22400" windowHeight="10010" xr2:uid="{9C308394-85F4-420F-A016-07AFB7C9F675}"/>
   </bookViews>
@@ -123,7 +123,7 @@
     <t>SpouseName</t>
   </si>
   <si>
-    <t>MaritalStatus'==''married"</t>
+    <t>MaritalStatus==''married"</t>
   </si>
 </sst>
 </file>
@@ -215,18 +215,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00DC5D61-B6B1-4CEB-B163-387E5F0690EF}" name="Table1" displayName="Table1" ref="A1:I15" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00DC5D61-B6B1-4CEB-B163-387E5F0690EF}" name="Table1" displayName="Table1" ref="A1:I15" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="A1:I15" xr:uid="{2E0AB24A-2D50-4018-88B4-76A62A45AC9C}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{067FCCFE-3D65-4DC5-B1B3-3C0A3CD55856}" name="variable_name" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{76581D30-6ECB-48A5-8539-E7D1B1DE1CE9}" name="datatype_check" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{B01C5A01-8AEF-4CE3-A745-196F9B6F3E68}" name="missing_check" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{3E9A8904-45B8-4141-A14A-453CE4F4F1B9}" name="logic_check" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{43C7ADE9-75F7-48EB-907E-54FF4AA8030D}" name="regex_check" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{4ACD8CB2-0916-4CA6-978C-4B86B02AF578}" name="constraint_check" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{719C69CE-CCBF-4D61-A300-C9E0EB9E3BB4}" name="choices_check" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{CA6D194C-5ABF-4F3B-BBC1-F735832AA43D}" name="id_check" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{60B12529-9D67-494C-A0BC-04B4F6163473}" name="ids_check" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{067FCCFE-3D65-4DC5-B1B3-3C0A3CD55856}" name="variable_name" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{76581D30-6ECB-48A5-8539-E7D1B1DE1CE9}" name="datatype_check" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{B01C5A01-8AEF-4CE3-A745-196F9B6F3E68}" name="missing_check" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{3E9A8904-45B8-4141-A14A-453CE4F4F1B9}" name="logic_check" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{43C7ADE9-75F7-48EB-907E-54FF4AA8030D}" name="regex_check" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{4ACD8CB2-0916-4CA6-978C-4B86B02AF578}" name="constraint_check" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{719C69CE-CCBF-4D61-A300-C9E0EB9E3BB4}" name="choices_check" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{CA6D194C-5ABF-4F3B-BBC1-F735832AA43D}" name="id_check" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{60B12529-9D67-494C-A0BC-04B4F6163473}" name="ids_check" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -532,7 +532,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Sample/template.xlsx
+++ b/Sample/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Validating-Excel-with-Python\Sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B50BE995-F70D-4E10-97BD-6CEADF03DCEF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F50691-8F3B-4C38-8913-53712B318D78}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22400" windowHeight="10010" xr2:uid="{9C308394-85F4-420F-A016-07AFB7C9F675}"/>
   </bookViews>

--- a/Sample/template.xlsx
+++ b/Sample/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Validating-Excel-with-Python\Sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F50691-8F3B-4C38-8913-53712B318D78}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B4F6273-3685-4088-A464-530945F132B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22400" windowHeight="10010" xr2:uid="{9C308394-85F4-420F-A016-07AFB7C9F675}"/>
   </bookViews>
@@ -123,7 +123,7 @@
     <t>SpouseName</t>
   </si>
   <si>
-    <t>MaritalStatus==''married"</t>
+    <t>MaritalStatus=="married"</t>
   </si>
 </sst>
 </file>

--- a/Sample/template.xlsx
+++ b/Sample/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Validating-Excel-with-Python\Sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B4F6273-3685-4088-A464-530945F132B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B31E4F-2F2E-4C07-9E1D-455136A2AB14}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22400" windowHeight="10010" xr2:uid="{9C308394-85F4-420F-A016-07AFB7C9F675}"/>
   </bookViews>
@@ -102,41 +102,47 @@
     <t>r'[A-Z]\d+'</t>
   </si>
   <si>
-    <t>&gt;18 and &lt;80</t>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>ids_check</t>
+  </si>
+  <si>
+    <t>MaritalStatus</t>
+  </si>
+  <si>
+    <t>['single','married']</t>
+  </si>
+  <si>
+    <t>SpouseName</t>
+  </si>
+  <si>
+    <t>MaritalStatus=="married"</t>
+  </si>
+  <si>
+    <t>value &gt; 18 and value &lt; 30</t>
   </si>
   <si>
     <t>['male','female']</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>ids_check</t>
-  </si>
-  <si>
-    <t>MaritalStatus</t>
-  </si>
-  <si>
-    <t>['single','married']</t>
-  </si>
-  <si>
-    <t>SpouseName</t>
-  </si>
-  <si>
-    <t>MaritalStatus=="married"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -159,47 +165,48 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="11">
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -532,7 +539,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -575,7 +582,7 @@
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -586,10 +593,10 @@
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -600,7 +607,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -611,7 +618,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -622,13 +629,13 @@
         <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -639,13 +646,13 @@
         <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
@@ -656,41 +663,41 @@
         <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>25</v>
+        <v>25</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
@@ -701,7 +708,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
@@ -712,7 +719,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
@@ -723,7 +730,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
@@ -734,7 +741,7 @@
         <v>15</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
@@ -745,7 +752,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>24</v>
@@ -759,7 +766,7 @@
         <v>12</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
